--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.4085295</v>
+        <v>3.767119</v>
       </c>
       <c r="H2">
-        <v>12.817059</v>
+        <v>7.534238</v>
       </c>
       <c r="I2">
-        <v>0.1846012962579885</v>
+        <v>0.1064531723628092</v>
       </c>
       <c r="J2">
-        <v>0.139128893658904</v>
+        <v>0.08010427729187669</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.090704</v>
+        <v>1.273363333333333</v>
       </c>
       <c r="N2">
-        <v>18.272112</v>
+        <v>3.82009</v>
       </c>
       <c r="O2">
-        <v>0.387181883253681</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="P2">
-        <v>0.3871818832536809</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="Q2">
-        <v>39.032456259768</v>
+        <v>4.796911206903334</v>
       </c>
       <c r="R2">
-        <v>234.194737558608</v>
+        <v>28.78146724142</v>
       </c>
       <c r="S2">
-        <v>0.07147427753623867</v>
+        <v>0.01883612700562854</v>
       </c>
       <c r="T2">
-        <v>0.05386818706185554</v>
+        <v>0.01417387859162583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.4085295</v>
+        <v>3.767119</v>
       </c>
       <c r="H3">
-        <v>12.817059</v>
+        <v>7.534238</v>
       </c>
       <c r="I3">
-        <v>0.1846012962579885</v>
+        <v>0.1064531723628092</v>
       </c>
       <c r="J3">
-        <v>0.139128893658904</v>
+        <v>0.08010427729187669</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.06063066666666667</v>
+        <v>0.815617</v>
       </c>
       <c r="N3">
-        <v>0.181892</v>
+        <v>2.446851</v>
       </c>
       <c r="O3">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="P3">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="Q3">
-        <v>0.388553415938</v>
+        <v>3.072526297423</v>
       </c>
       <c r="R3">
-        <v>2.331320495628</v>
+        <v>18.435157784538</v>
       </c>
       <c r="S3">
-        <v>0.0007114995403717711</v>
+        <v>0.01206495035453333</v>
       </c>
       <c r="T3">
-        <v>0.0005362375340658501</v>
+        <v>0.009078678514327736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.4085295</v>
+        <v>3.767119</v>
       </c>
       <c r="H4">
-        <v>12.817059</v>
+        <v>7.534238</v>
       </c>
       <c r="I4">
-        <v>0.1846012962579885</v>
+        <v>0.1064531723628092</v>
       </c>
       <c r="J4">
-        <v>0.139128893658904</v>
+        <v>0.08010427729187669</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.579525333333335</v>
+        <v>5.107486666666667</v>
       </c>
       <c r="N4">
-        <v>28.738576</v>
+        <v>15.32246</v>
       </c>
       <c r="O4">
-        <v>0.6089638667773621</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="P4">
-        <v>0.608963866777362</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="Q4">
-        <v>61.39067069466401</v>
+        <v>19.24051006424667</v>
       </c>
       <c r="R4">
-        <v>368.3440241679841</v>
+        <v>115.44306038548</v>
       </c>
       <c r="S4">
-        <v>0.112415519181378</v>
+        <v>0.07555209500264737</v>
       </c>
       <c r="T4">
-        <v>0.08472446906298256</v>
+        <v>0.05685172018592312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>1.217321</v>
       </c>
       <c r="I5">
-        <v>0.01168853866616727</v>
+        <v>0.01146655947899596</v>
       </c>
       <c r="J5">
-        <v>0.01321399269190776</v>
+        <v>0.01294259869906215</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.090704</v>
+        <v>1.273363333333333</v>
       </c>
       <c r="N5">
-        <v>18.272112</v>
+        <v>3.82009</v>
       </c>
       <c r="O5">
-        <v>0.387181883253681</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="P5">
-        <v>0.3871818832536809</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="Q5">
-        <v>2.471447294661334</v>
+        <v>0.5166973087655556</v>
       </c>
       <c r="R5">
-        <v>22.243025651952</v>
+        <v>4.650275778890001</v>
       </c>
       <c r="S5">
-        <v>0.004525590413250112</v>
+        <v>0.00202892563809981</v>
       </c>
       <c r="T5">
-        <v>0.005116218575753225</v>
+        <v>0.00229010021465164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>1.217321</v>
       </c>
       <c r="I6">
-        <v>0.01168853866616727</v>
+        <v>0.01146655947899596</v>
       </c>
       <c r="J6">
-        <v>0.01321399269190776</v>
+        <v>0.01294259869906215</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06063066666666667</v>
+        <v>0.815617</v>
       </c>
       <c r="N6">
-        <v>0.181892</v>
+        <v>2.446851</v>
       </c>
       <c r="O6">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="P6">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="Q6">
-        <v>0.02460232792577778</v>
+        <v>0.3309559006856667</v>
       </c>
       <c r="R6">
-        <v>0.221420951332</v>
+        <v>2.978603106171001</v>
       </c>
       <c r="S6">
-        <v>4.505054979122771E-05</v>
+        <v>0.00129957114269825</v>
       </c>
       <c r="T6">
-        <v>5.093003092258331E-05</v>
+        <v>0.001466859157852454</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>1.217321</v>
       </c>
       <c r="I7">
-        <v>0.01168853866616727</v>
+        <v>0.01146655947899596</v>
       </c>
       <c r="J7">
-        <v>0.01321399269190776</v>
+        <v>0.01294259869906215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.579525333333335</v>
+        <v>5.107486666666667</v>
       </c>
       <c r="N7">
-        <v>28.738576</v>
+        <v>15.32246</v>
       </c>
       <c r="O7">
-        <v>0.6089638667773621</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="P7">
-        <v>0.608963866777362</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="Q7">
-        <v>3.88711911943289</v>
+        <v>2.072483592184445</v>
       </c>
       <c r="R7">
-        <v>34.98407207489601</v>
+        <v>18.65235232966</v>
       </c>
       <c r="S7">
-        <v>0.007117897703125931</v>
+        <v>0.008138062698197897</v>
       </c>
       <c r="T7">
-        <v>0.008046844085231956</v>
+        <v>0.009185639326558057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.290842999999999</v>
+        <v>6.271924666666666</v>
       </c>
       <c r="H8">
-        <v>27.872529</v>
+        <v>18.815774</v>
       </c>
       <c r="I8">
-        <v>0.2676279575727096</v>
+        <v>0.1772352499581833</v>
       </c>
       <c r="J8">
-        <v>0.3025556895108087</v>
+        <v>0.2000499556766435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.090704</v>
+        <v>1.273363333333333</v>
       </c>
       <c r="N8">
-        <v>18.272112</v>
+        <v>3.82009</v>
       </c>
       <c r="O8">
-        <v>0.387181883253681</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="P8">
-        <v>0.3871818832536809</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="Q8">
-        <v>56.58777462347199</v>
+        <v>7.986438899962222</v>
       </c>
       <c r="R8">
-        <v>509.2899716112479</v>
+        <v>71.87795009966</v>
       </c>
       <c r="S8">
-        <v>0.1036206966243379</v>
+        <v>0.03136050907631742</v>
       </c>
       <c r="T8">
-        <v>0.1171440816539109</v>
+        <v>0.03539740797721944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.290842999999999</v>
+        <v>6.271924666666666</v>
       </c>
       <c r="H9">
-        <v>27.872529</v>
+        <v>18.815774</v>
       </c>
       <c r="I9">
-        <v>0.2676279575727096</v>
+        <v>0.1772352499581833</v>
       </c>
       <c r="J9">
-        <v>0.3025556895108087</v>
+        <v>0.2000499556766435</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06063066666666667</v>
+        <v>0.815617</v>
       </c>
       <c r="N9">
-        <v>0.181892</v>
+        <v>2.446851</v>
       </c>
       <c r="O9">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="P9">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="Q9">
-        <v>0.5633100049853332</v>
+        <v>5.115488380852667</v>
       </c>
       <c r="R9">
-        <v>5.069790044867999</v>
+        <v>46.03939542767399</v>
       </c>
       <c r="S9">
-        <v>0.001031505047166637</v>
+        <v>0.02008709035491215</v>
       </c>
       <c r="T9">
-        <v>0.001166125256904793</v>
+        <v>0.02267281218674621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.290842999999999</v>
+        <v>6.271924666666666</v>
       </c>
       <c r="H10">
-        <v>27.872529</v>
+        <v>18.815774</v>
       </c>
       <c r="I10">
-        <v>0.2676279575727096</v>
+        <v>0.1772352499581833</v>
       </c>
       <c r="J10">
-        <v>0.3025556895108087</v>
+        <v>0.2000499556766435</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.579525333333335</v>
+        <v>5.107486666666667</v>
       </c>
       <c r="N10">
-        <v>28.738576</v>
+        <v>15.32246</v>
       </c>
       <c r="O10">
-        <v>0.6089638667773621</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="P10">
-        <v>0.608963866777362</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="Q10">
-        <v>89.00186588652267</v>
+        <v>32.03377160933778</v>
       </c>
       <c r="R10">
-        <v>801.016792978704</v>
+        <v>288.30394448404</v>
       </c>
       <c r="S10">
-        <v>0.1629757559012051</v>
+        <v>0.1257876505269537</v>
       </c>
       <c r="T10">
-        <v>0.184245482599993</v>
+        <v>0.1419797355126779</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.6143905</v>
+        <v>8.340211500000001</v>
       </c>
       <c r="H11">
-        <v>11.228781</v>
+        <v>16.680423</v>
       </c>
       <c r="I11">
-        <v>0.1617256757573693</v>
+        <v>0.2356819554550265</v>
       </c>
       <c r="J11">
-        <v>0.1218881708875742</v>
+        <v>0.1773468304741365</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.090704</v>
+        <v>1.273363333333333</v>
       </c>
       <c r="N11">
-        <v>18.272112</v>
+        <v>3.82009</v>
       </c>
       <c r="O11">
-        <v>0.387181883253681</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="P11">
-        <v>0.3871818832536809</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="Q11">
-        <v>34.19559067591199</v>
+        <v>10.620119516345</v>
       </c>
       <c r="R11">
-        <v>205.173544055472</v>
+        <v>63.72071709807001</v>
       </c>
       <c r="S11">
-        <v>0.06261725171021242</v>
+        <v>0.04170223533363394</v>
       </c>
       <c r="T11">
-        <v>0.04719289155059747</v>
+        <v>0.03138025245007697</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.6143905</v>
+        <v>8.340211500000001</v>
       </c>
       <c r="H12">
-        <v>11.228781</v>
+        <v>16.680423</v>
       </c>
       <c r="I12">
-        <v>0.1617256757573693</v>
+        <v>0.2356819554550265</v>
       </c>
       <c r="J12">
-        <v>0.1218881708875742</v>
+        <v>0.1773468304741365</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.06063066666666667</v>
+        <v>0.815617</v>
       </c>
       <c r="N12">
-        <v>0.181892</v>
+        <v>2.446851</v>
       </c>
       <c r="O12">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="P12">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="Q12">
-        <v>0.340404238942</v>
+        <v>6.802418282995501</v>
       </c>
       <c r="R12">
-        <v>2.042425433652</v>
+        <v>40.814509697973</v>
       </c>
       <c r="S12">
-        <v>0.0006233311807673879</v>
+        <v>0.02671119168091263</v>
       </c>
       <c r="T12">
-        <v>0.0004697874788596565</v>
+        <v>0.02009973641660885</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.6143905</v>
+        <v>8.340211500000001</v>
       </c>
       <c r="H13">
-        <v>11.228781</v>
+        <v>16.680423</v>
       </c>
       <c r="I13">
-        <v>0.1617256757573693</v>
+        <v>0.2356819554550265</v>
       </c>
       <c r="J13">
-        <v>0.1218881708875742</v>
+        <v>0.1773468304741365</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.579525333333335</v>
+        <v>5.107486666666667</v>
       </c>
       <c r="N13">
-        <v>28.738576</v>
+        <v>15.32246</v>
       </c>
       <c r="O13">
-        <v>0.6089638667773621</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="P13">
-        <v>0.608963866777362</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="Q13">
-        <v>53.783196025976</v>
+        <v>42.59751903343001</v>
       </c>
       <c r="R13">
-        <v>322.699176155856</v>
+        <v>255.5851142005801</v>
       </c>
       <c r="S13">
-        <v>0.0984850928663895</v>
+        <v>0.1672685284404799</v>
       </c>
       <c r="T13">
-        <v>0.07422549185811708</v>
+        <v>0.1258668416074507</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.86779</v>
+        <v>4.504435666666667</v>
       </c>
       <c r="H14">
-        <v>11.60337</v>
+        <v>13.513307</v>
       </c>
       <c r="I14">
-        <v>0.1114138661066763</v>
+        <v>0.1272886432366092</v>
       </c>
       <c r="J14">
-        <v>0.1259543262471458</v>
+        <v>0.1436739443402582</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.090704</v>
+        <v>1.273363333333333</v>
       </c>
       <c r="N14">
-        <v>18.272112</v>
+        <v>3.82009</v>
       </c>
       <c r="O14">
-        <v>0.387181883253681</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="P14">
-        <v>0.3871818832536809</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="Q14">
-        <v>23.55756402416</v>
+        <v>5.735783215292223</v>
       </c>
       <c r="R14">
-        <v>212.01807621744</v>
+        <v>51.62204893763001</v>
       </c>
       <c r="S14">
-        <v>0.04313743049975639</v>
+        <v>0.02252281446538228</v>
       </c>
       <c r="T14">
-        <v>0.04876723324031845</v>
+        <v>0.02542207623244281</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.86779</v>
+        <v>4.504435666666667</v>
       </c>
       <c r="H15">
-        <v>11.60337</v>
+        <v>13.513307</v>
       </c>
       <c r="I15">
-        <v>0.1114138661066763</v>
+        <v>0.1272886432366092</v>
       </c>
       <c r="J15">
-        <v>0.1259543262471458</v>
+        <v>0.1436739443402582</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.06063066666666667</v>
+        <v>0.815617</v>
       </c>
       <c r="N15">
-        <v>0.181892</v>
+        <v>2.446851</v>
       </c>
       <c r="O15">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="P15">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="Q15">
-        <v>0.2345066862266666</v>
+        <v>3.673894305139667</v>
       </c>
       <c r="R15">
-        <v>2.11056017604</v>
+        <v>33.06504874625701</v>
       </c>
       <c r="S15">
-        <v>0.0004294168899830347</v>
+        <v>0.01442635411663994</v>
       </c>
       <c r="T15">
-        <v>0.0004854594580280595</v>
+        <v>0.01628339454081681</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.86779</v>
+        <v>4.504435666666667</v>
       </c>
       <c r="H16">
-        <v>11.60337</v>
+        <v>13.513307</v>
       </c>
       <c r="I16">
-        <v>0.1114138661066763</v>
+        <v>0.1272886432366092</v>
       </c>
       <c r="J16">
-        <v>0.1259543262471458</v>
+        <v>0.1436739443402582</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.579525333333335</v>
+        <v>5.107486666666667</v>
       </c>
       <c r="N16">
-        <v>28.738576</v>
+        <v>15.32246</v>
       </c>
       <c r="O16">
-        <v>0.6089638667773621</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="P16">
-        <v>0.608963866777362</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="Q16">
-        <v>37.05159228901334</v>
+        <v>23.00634510835778</v>
       </c>
       <c r="R16">
-        <v>333.46433060112</v>
+        <v>207.05710597522</v>
       </c>
       <c r="S16">
-        <v>0.06784701871693688</v>
+        <v>0.09033947465458701</v>
       </c>
       <c r="T16">
-        <v>0.07670163354879929</v>
+        <v>0.1019684735669986</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.128190666666667</v>
+        <v>12.09810466666667</v>
       </c>
       <c r="H17">
-        <v>27.384572</v>
+        <v>36.294314</v>
       </c>
       <c r="I17">
-        <v>0.2629426656390891</v>
+        <v>0.3418744195083758</v>
       </c>
       <c r="J17">
-        <v>0.2972589270036596</v>
+        <v>0.3858823935180229</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.090704</v>
+        <v>1.273363333333333</v>
       </c>
       <c r="N17">
-        <v>18.272112</v>
+        <v>3.82009</v>
       </c>
       <c r="O17">
-        <v>0.387181883253681</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="P17">
-        <v>0.3871818832536809</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="Q17">
-        <v>55.59710740622933</v>
+        <v>15.40528288536222</v>
       </c>
       <c r="R17">
-        <v>500.373966656064</v>
+        <v>138.64754596826</v>
       </c>
       <c r="S17">
-        <v>0.1018066364698855</v>
+        <v>0.06049223186969158</v>
       </c>
       <c r="T17">
-        <v>0.1150932711712454</v>
+        <v>0.06827912792273691</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.128190666666667</v>
+        <v>12.09810466666667</v>
       </c>
       <c r="H18">
-        <v>27.384572</v>
+        <v>36.294314</v>
       </c>
       <c r="I18">
-        <v>0.2629426656390891</v>
+        <v>0.3418744195083758</v>
       </c>
       <c r="J18">
-        <v>0.2972589270036596</v>
+        <v>0.3858823935180229</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.06063066666666667</v>
+        <v>0.815617</v>
       </c>
       <c r="N18">
-        <v>0.181892</v>
+        <v>2.446851</v>
       </c>
       <c r="O18">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="P18">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="Q18">
-        <v>0.5534482855804445</v>
+        <v>9.867419833912667</v>
       </c>
       <c r="R18">
-        <v>4.981034570224</v>
+        <v>88.806778505214</v>
       </c>
       <c r="S18">
-        <v>0.001013446760876926</v>
+        <v>0.03874659446311127</v>
       </c>
       <c r="T18">
-        <v>0.001145710210176041</v>
+        <v>0.04373427129645551</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.128190666666667</v>
+        <v>12.09810466666667</v>
       </c>
       <c r="H19">
-        <v>27.384572</v>
+        <v>36.294314</v>
       </c>
       <c r="I19">
-        <v>0.2629426656390891</v>
+        <v>0.3418744195083758</v>
       </c>
       <c r="J19">
-        <v>0.2972589270036596</v>
+        <v>0.3858823935180229</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.579525333333335</v>
+        <v>5.107486666666667</v>
       </c>
       <c r="N19">
-        <v>28.738576</v>
+        <v>15.32246</v>
       </c>
       <c r="O19">
-        <v>0.6089638667773621</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="P19">
-        <v>0.608963866777362</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="Q19">
-        <v>87.44373373883023</v>
+        <v>61.79090827693778</v>
       </c>
       <c r="R19">
-        <v>786.993603649472</v>
+        <v>556.1181744924401</v>
       </c>
       <c r="S19">
-        <v>0.1601225824083267</v>
+        <v>0.242635593175573</v>
       </c>
       <c r="T19">
-        <v>0.1810199456222382</v>
+        <v>0.2738689942988305</v>
       </c>
     </row>
   </sheetData>
